--- a/public/sample_files/packging_list_sample.xlsx
+++ b/public/sample_files/packging_list_sample.xlsx
@@ -1,22 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="17235" windowHeight="10050"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Eric Thomas</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>If you do not have a specific dimension size for the MU Length, enter the number 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>If you do not have a specific dimension size for the MU Width, enter the number 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>If you do not have a specific dimension size for the MU Height, enter the number 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>If you do not have a specific dimension size for the MU Weight, enter the number 1.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>item_name</t>
   </si>
@@ -24,88 +95,496 @@
     <t>sku</t>
   </si>
   <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>ABC1</t>
-  </si>
-  <si>
-    <t>ABCD1</t>
-  </si>
-  <si>
-    <t>ABC2</t>
-  </si>
-  <si>
-    <t>ABCD2</t>
-  </si>
-  <si>
-    <t>ABC3</t>
-  </si>
-  <si>
-    <t>ABCD3</t>
-  </si>
-  <si>
-    <t>ABC4</t>
-  </si>
-  <si>
-    <t>ABCD4</t>
-  </si>
-  <si>
-    <t>ABC5</t>
-  </si>
-  <si>
-    <t>ABCD5</t>
-  </si>
-  <si>
-    <t>ABC6</t>
-  </si>
-  <si>
-    <t>ABCD6</t>
-  </si>
-  <si>
-    <t>ABC7</t>
-  </si>
-  <si>
-    <t>ABCD7</t>
-  </si>
-  <si>
-    <t>ABC8</t>
-  </si>
-  <si>
-    <t>ABCD8</t>
-  </si>
-  <si>
-    <t>ABC9</t>
-  </si>
-  <si>
-    <t>ABCD9</t>
-  </si>
-  <si>
-    <t>ABC10</t>
+    <t>qty per packing Slip</t>
+  </si>
+  <si>
+    <t>Quantity received Cartons</t>
+  </si>
+  <si>
+    <t>Quantity received Eaches</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Total Pallets</t>
+  </si>
+  <si>
+    <t>Lot#</t>
+  </si>
+  <si>
+    <t>Serial#</t>
+  </si>
+  <si>
+    <t>UPC Label</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Custom Field1</t>
+  </si>
+  <si>
+    <t>Custom Field2</t>
+  </si>
+  <si>
+    <t>Custom Field3</t>
+  </si>
+  <si>
+    <t>Custom Field4</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>SK1</t>
+  </si>
+  <si>
+    <t>30-07-2025</t>
+  </si>
+  <si>
+    <t>Test field 1</t>
+  </si>
+  <si>
+    <t>Test field 3</t>
+  </si>
+  <si>
+    <t>Test field 4</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>SK2</t>
+  </si>
+  <si>
+    <t>30-07-2026</t>
+  </si>
+  <si>
+    <t>Test field 2</t>
+  </si>
+  <si>
+    <t>Test field 5</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SK3</t>
+  </si>
+  <si>
+    <t>30-07-2027</t>
+  </si>
+  <si>
+    <t>Test field 6</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>SK4</t>
+  </si>
+  <si>
+    <t>30-07-2028</t>
+  </si>
+  <si>
+    <t>Test field 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,17 +592,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Normal 3" xfId="50"/>
+    <cellStyle name="Normal 4" xfId="51"/>
+    <cellStyle name="Normal 5" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -134,9 +920,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +960,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -246,7 +1032,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,268 +1200,397 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="27.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="25.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="28.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="18.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="16.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="12.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="21.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="25.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="10.7904761904762" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="9.8952380952381" customWidth="1"/>
+    <col min="18" max="18" width="19.2857142857143" customWidth="1"/>
+    <col min="19" max="19" width="20.8571428571429" customWidth="1"/>
+    <col min="20" max="20" width="19.7142857142857" customWidth="1"/>
+    <col min="21" max="21" width="22.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>573</v>
+      </c>
+      <c r="K2">
+        <v>1350</v>
+      </c>
+      <c r="L2">
+        <v>586</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>22</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>110</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>573</v>
+      </c>
+      <c r="K3">
+        <v>1350</v>
+      </c>
+      <c r="L3">
+        <v>587</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>112</v>
-      </c>
-      <c r="C3">
-        <v>62</v>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>573</v>
+      </c>
+      <c r="K4">
+        <v>1350</v>
+      </c>
+      <c r="L4">
+        <v>588</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>114</v>
-      </c>
-      <c r="C4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>118</v>
-      </c>
-      <c r="C6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>122</v>
-      </c>
-      <c r="C8">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>124</v>
-      </c>
-      <c r="C9">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>126</v>
-      </c>
-      <c r="C10">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>128</v>
-      </c>
-      <c r="C11">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>573</v>
+      </c>
+      <c r="K5">
+        <v>1350</v>
+      </c>
+      <c r="L5">
+        <v>589</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>130</v>
-      </c>
-      <c r="C12">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>132</v>
-      </c>
-      <c r="C13">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="O5">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>134</v>
-      </c>
-      <c r="C14">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>136</v>
-      </c>
-      <c r="C15">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>138</v>
-      </c>
-      <c r="C16">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>140</v>
-      </c>
-      <c r="C17">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>142</v>
-      </c>
-      <c r="C18">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>144</v>
-      </c>
-      <c r="C19">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>146</v>
-      </c>
-      <c r="C20">
-        <v>266</v>
+      <c r="P5">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>23</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>